--- a/app/data/absenteeism_data_19.xlsx
+++ b/app/data/absenteeism_data_19.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99188</v>
+        <v>89772</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Freitas</t>
+          <t>Emanuel Barbosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>8062.14</v>
+        <v>4209.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37857</v>
+        <v>14826</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Melissa da Paz</t>
+          <t>Kaique Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>6531.3</v>
+        <v>2599.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49655</v>
+        <v>16361</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuella Moreira</t>
+          <t>Mariane Pinto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,220 +548,220 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>5456.47</v>
+        <v>5889.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7142</v>
+        <v>94445</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esther Moraes</t>
+          <t>Alexandre Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>8401.57</v>
+        <v>9142.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11080</v>
+        <v>96531</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Juliana Ramos</t>
+          <t>João Guilherme da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>7622.64</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52374</v>
+        <v>23754</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anthony Castro</t>
+          <t>Lucas Gabriel Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>2607.33</v>
+        <v>5924.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88499</v>
+        <v>7956</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Breno Martins</t>
+          <t>Dra. Stella Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>2507.1</v>
+        <v>9516.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12439</v>
+        <v>41445</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Cauê da Mata</t>
+          <t>Letícia da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>10082.42</v>
+        <v>3755.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26651</v>
+        <v>42193</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vitor Silva</t>
+          <t>Luiz Felipe Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>9088.780000000001</v>
+        <v>12018.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17517</v>
+        <v>19685</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raquel Moura</t>
+          <t>Vitor Hugo Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>4229.45</v>
+        <v>2720.22</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_19.xlsx
+++ b/app/data/absenteeism_data_19.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4688</v>
+        <v>59096</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manuela Novaes</t>
+          <t>Lorena Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,60 +490,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>8559.66</v>
+        <v>4211.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60127</v>
+        <v>82013</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorenzo da Cruz</t>
+          <t>Danilo Moura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>8630.08</v>
+        <v>12382.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27665</v>
+        <v>46472</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Cauã da Rocha</t>
+          <t>Júlia Rezende</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,172 +552,172 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>10896.5</v>
+        <v>12343.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89534</v>
+        <v>4255</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Nascimento</t>
+          <t>Maria Fernanda Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>5466.47</v>
+        <v>8066.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>329</v>
+        <v>92757</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Fogaça</t>
+          <t>Srta. Catarina Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>2643.52</v>
+        <v>4049.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68738</v>
+        <v>75750</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcela Duarte</t>
+          <t>Heitor da Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>11618.22</v>
+        <v>11051.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29004</v>
+        <v>66508</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Clara Freitas</t>
+          <t>Kaique Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45078</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>3902.11</v>
+        <v>10994.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34729</v>
+        <v>46797</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiza Silveira</t>
+          <t>Thiago Almeida</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>3210.65</v>
+        <v>4249.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47588</v>
+        <v>39237</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniela Gonçalves</t>
+          <t>Mariana Barros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>11023.88</v>
+        <v>10651.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15490</v>
+        <v>49285</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raul Freitas</t>
+          <t>Antônio Ribeiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>7300.51</v>
+        <v>4567.48</v>
       </c>
     </row>
   </sheetData>
